--- a/data/output/FV2404_FV2310/UTILMD/55076.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55076.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6402" uniqueCount="512">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6423" uniqueCount="512">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1671,6 +1671,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U290" totalsRowShown="0">
+  <autoFilter ref="A1:U290"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1960,7 +1990,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15653,5 +15686,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55076.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55076.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7849" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7771" uniqueCount="795">
   <si>
     <t>#</t>
   </si>
@@ -8697,46 +8697,44 @@
       <c r="V113" s="2"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2" t="s">
+      <c r="C114" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="L114" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M114" s="2" t="s">
+      <c r="L114" s="7"/>
+      <c r="M114" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N114" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2" t="s">
+      <c r="N114" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="V114" s="2" t="s">
+      <c r="V114" s="5" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9015,46 +9013,44 @@
       <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2" t="s">
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="L120" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M120" s="2" t="s">
+      <c r="L120" s="7"/>
+      <c r="M120" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N120" s="2" t="s">
+      <c r="N120" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-      <c r="U120" s="2" t="s">
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="V120" s="2" t="s">
+      <c r="V120" s="5" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9545,46 +9541,44 @@
       <c r="V129" s="2"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2" t="s">
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="L130" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M130" s="2" t="s">
+      <c r="L130" s="7"/>
+      <c r="M130" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N130" s="2" t="s">
+      <c r="N130" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2" t="s">
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="V130" s="2" t="s">
+      <c r="V130" s="5" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9855,46 +9849,44 @@
       </c>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2" t="s">
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="L136" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M136" s="2" t="s">
+      <c r="L136" s="7"/>
+      <c r="M136" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="N136" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2" t="s">
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="V136" s="2" t="s">
+      <c r="V136" s="5" t="s">
         <v>403</v>
       </c>
     </row>
@@ -10119,44 +10111,42 @@
       <c r="V140" s="2"/>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2" t="s">
+      <c r="C141" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K141" s="2"/>
-      <c r="L141" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M141" s="2" t="s">
+      <c r="K141" s="5"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N141" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="2"/>
-      <c r="S141" s="2"/>
-      <c r="T141" s="2"/>
-      <c r="U141" s="2" t="s">
+      <c r="N141" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="V141" s="2"/>
+      <c r="V141" s="5"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="2" t="s">
@@ -10421,44 +10411,42 @@
       <c r="V146" s="2"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2" t="s">
+      <c r="C147" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K147" s="2"/>
-      <c r="L147" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M147" s="2" t="s">
+      <c r="K147" s="5"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N147" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2" t="s">
+      <c r="N147" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="V147" s="2"/>
+      <c r="V147" s="5"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="2" t="s">
@@ -10619,44 +10607,42 @@
       <c r="V150" s="2"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2" t="s">
+      <c r="C151" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K151" s="2"/>
-      <c r="L151" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M151" s="2" t="s">
+      <c r="K151" s="5"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N151" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" s="2"/>
-      <c r="R151" s="2"/>
-      <c r="S151" s="2"/>
-      <c r="T151" s="2"/>
-      <c r="U151" s="2" t="s">
+      <c r="N151" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="V151" s="2"/>
+      <c r="V151" s="5"/>
     </row>
     <row r="152" spans="1:22">
       <c r="A152" s="2" t="s">
@@ -10848,9 +10834,7 @@
         <v>348</v>
       </c>
       <c r="K155" s="2"/>
-      <c r="L155" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L155" s="7"/>
       <c r="M155" s="2" t="s">
         <v>53</v>
       </c>
@@ -10877,46 +10861,44 @@
       <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="L156" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M156" s="2" t="s">
+      <c r="L156" s="7"/>
+      <c r="M156" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N156" s="2" t="s">
+      <c r="N156" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2" t="s">
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="V156" s="2" t="s">
+      <c r="V156" s="5" t="s">
         <v>405</v>
       </c>
     </row>
@@ -11407,46 +11389,44 @@
       <c r="V165" s="2"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2" t="s">
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L166" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M166" s="2" t="s">
+      <c r="L166" s="7"/>
+      <c r="M166" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N166" s="2" t="s">
+      <c r="N166" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2" t="s">
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="V166" s="2" t="s">
+      <c r="V166" s="5" t="s">
         <v>407</v>
       </c>
     </row>
@@ -11879,44 +11859,42 @@
       <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2" t="s">
+      <c r="C175" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K175" s="2"/>
-      <c r="L175" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M175" s="2" t="s">
+      <c r="K175" s="5"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N175" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2" t="s">
+      <c r="N175" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="5"/>
+      <c r="S175" s="5"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="V175" s="2"/>
+      <c r="V175" s="5"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="2" t="s">
@@ -12154,9 +12132,7 @@
         <v>348</v>
       </c>
       <c r="K180" s="2"/>
-      <c r="L180" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L180" s="7"/>
       <c r="M180" s="2" t="s">
         <v>60</v>
       </c>
@@ -12210,9 +12186,7 @@
         <v>348</v>
       </c>
       <c r="K181" s="2"/>
-      <c r="L181" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L181" s="7"/>
       <c r="M181" s="2" t="s">
         <v>60</v>
       </c>
@@ -12266,9 +12240,7 @@
         <v>348</v>
       </c>
       <c r="K182" s="2"/>
-      <c r="L182" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L182" s="7"/>
       <c r="M182" s="2" t="s">
         <v>60</v>
       </c>
@@ -12322,9 +12294,7 @@
         <v>348</v>
       </c>
       <c r="K183" s="2"/>
-      <c r="L183" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L183" s="7"/>
       <c r="M183" s="2" t="s">
         <v>60</v>
       </c>
@@ -12378,9 +12348,7 @@
         <v>348</v>
       </c>
       <c r="K184" s="2"/>
-      <c r="L184" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L184" s="7"/>
       <c r="M184" s="2" t="s">
         <v>60</v>
       </c>
@@ -12434,9 +12402,7 @@
         <v>348</v>
       </c>
       <c r="K185" s="2"/>
-      <c r="L185" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L185" s="7"/>
       <c r="M185" s="2" t="s">
         <v>60</v>
       </c>
@@ -12756,9 +12722,7 @@
         <v>348</v>
       </c>
       <c r="K191" s="2"/>
-      <c r="L191" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L191" s="7"/>
       <c r="M191" s="2" t="s">
         <v>62</v>
       </c>
@@ -12812,9 +12776,7 @@
         <v>348</v>
       </c>
       <c r="K192" s="2"/>
-      <c r="L192" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L192" s="7"/>
       <c r="M192" s="2" t="s">
         <v>62</v>
       </c>
@@ -12972,9 +12934,7 @@
         <v>348</v>
       </c>
       <c r="K195" s="2"/>
-      <c r="L195" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L195" s="7"/>
       <c r="M195" s="2" t="s">
         <v>63</v>
       </c>
@@ -13001,46 +12961,44 @@
       <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2" t="s">
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="L196" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M196" s="2" t="s">
+      <c r="L196" s="7"/>
+      <c r="M196" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N196" s="2" t="s">
+      <c r="N196" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2" t="s">
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="5"/>
+      <c r="T196" s="5"/>
+      <c r="U196" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="V196" s="2" t="s">
+      <c r="V196" s="5" t="s">
         <v>410</v>
       </c>
     </row>
@@ -13286,9 +13244,7 @@
       <c r="K201" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="L201" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L201" s="7"/>
       <c r="M201" s="2" t="s">
         <v>65</v>
       </c>
@@ -13915,46 +13871,44 @@
       <c r="V212" s="2"/>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2" t="s">
+      <c r="C213" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="K213" s="2" t="s">
+      <c r="K213" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L213" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M213" s="2" t="s">
+      <c r="L213" s="7"/>
+      <c r="M213" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N213" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2" t="s">
+      <c r="N213" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="V213" s="2" t="s">
+      <c r="V213" s="5" t="s">
         <v>415</v>
       </c>
     </row>
@@ -14194,9 +14148,7 @@
         <v>348</v>
       </c>
       <c r="K218" s="2"/>
-      <c r="L218" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L218" s="7"/>
       <c r="M218" s="2" t="s">
         <v>68</v>
       </c>
@@ -14250,9 +14202,7 @@
         <v>348</v>
       </c>
       <c r="K219" s="2"/>
-      <c r="L219" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L219" s="7"/>
       <c r="M219" s="2" t="s">
         <v>68</v>
       </c>
@@ -14306,9 +14256,7 @@
         <v>348</v>
       </c>
       <c r="K220" s="2"/>
-      <c r="L220" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L220" s="7"/>
       <c r="M220" s="2" t="s">
         <v>68</v>
       </c>
@@ -14695,46 +14643,44 @@
       <c r="V227" s="2"/>
     </row>
     <row r="228" spans="1:22">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2" t="s">
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="K228" s="2" t="s">
+      <c r="K228" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L228" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M228" s="2" t="s">
+      <c r="L228" s="7"/>
+      <c r="M228" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N228" s="2" t="s">
+      <c r="N228" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-      <c r="Q228" s="2"/>
-      <c r="R228" s="2"/>
-      <c r="S228" s="2"/>
-      <c r="T228" s="2"/>
-      <c r="U228" s="2" t="s">
+      <c r="O228" s="5"/>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="5"/>
+      <c r="R228" s="5"/>
+      <c r="S228" s="5"/>
+      <c r="T228" s="5"/>
+      <c r="U228" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="V228" s="2" t="s">
+      <c r="V228" s="5" t="s">
         <v>417</v>
       </c>
     </row>
@@ -15001,44 +14947,42 @@
       <c r="V233" s="2"/>
     </row>
     <row r="234" spans="1:22">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2" t="s">
+      <c r="C234" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K234" s="2"/>
-      <c r="L234" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M234" s="2" t="s">
+      <c r="K234" s="5"/>
+      <c r="L234" s="7"/>
+      <c r="M234" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N234" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
-      <c r="Q234" s="2"/>
-      <c r="R234" s="2"/>
-      <c r="S234" s="2"/>
-      <c r="T234" s="2"/>
-      <c r="U234" s="2" t="s">
+      <c r="N234" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O234" s="5"/>
+      <c r="P234" s="5"/>
+      <c r="Q234" s="5"/>
+      <c r="R234" s="5"/>
+      <c r="S234" s="5"/>
+      <c r="T234" s="5"/>
+      <c r="U234" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="V234" s="2"/>
+      <c r="V234" s="5"/>
     </row>
     <row r="235" spans="1:22">
       <c r="A235" s="2" t="s">
@@ -15438,9 +15382,7 @@
         <v>348</v>
       </c>
       <c r="K242" s="2"/>
-      <c r="L242" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L242" s="7"/>
       <c r="M242" s="2" t="s">
         <v>72</v>
       </c>
@@ -15494,9 +15436,7 @@
         <v>348</v>
       </c>
       <c r="K243" s="2"/>
-      <c r="L243" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L243" s="7"/>
       <c r="M243" s="2" t="s">
         <v>72</v>
       </c>
@@ -15550,9 +15490,7 @@
         <v>348</v>
       </c>
       <c r="K244" s="2"/>
-      <c r="L244" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L244" s="7"/>
       <c r="M244" s="2" t="s">
         <v>72</v>
       </c>
@@ -15637,46 +15575,44 @@
       </c>
     </row>
     <row r="246" spans="1:22">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2" t="s">
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="K246" s="2" t="s">
+      <c r="K246" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L246" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M246" s="2" t="s">
+      <c r="L246" s="7"/>
+      <c r="M246" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N246" s="2" t="s">
+      <c r="N246" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
-      <c r="U246" s="2" t="s">
+      <c r="O246" s="5"/>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="5"/>
+      <c r="R246" s="5"/>
+      <c r="S246" s="5"/>
+      <c r="T246" s="5"/>
+      <c r="U246" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="V246" s="2" t="s">
+      <c r="V246" s="5" t="s">
         <v>417</v>
       </c>
     </row>
@@ -15804,9 +15740,7 @@
         <v>347</v>
       </c>
       <c r="K249" s="2"/>
-      <c r="L249" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L249" s="7"/>
       <c r="M249" s="2" t="s">
         <v>73</v>
       </c>
@@ -16091,46 +16025,44 @@
       </c>
     </row>
     <row r="255" spans="1:22">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2" t="s">
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="K255" s="2" t="s">
+      <c r="K255" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="L255" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M255" s="2" t="s">
+      <c r="L255" s="7"/>
+      <c r="M255" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N255" s="2" t="s">
+      <c r="N255" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
-      <c r="Q255" s="2"/>
-      <c r="R255" s="2"/>
-      <c r="S255" s="2"/>
-      <c r="T255" s="2"/>
-      <c r="U255" s="2" t="s">
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
+      <c r="R255" s="5"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="V255" s="2" t="s">
+      <c r="V255" s="5" t="s">
         <v>421</v>
       </c>
     </row>
@@ -16559,44 +16491,42 @@
       </c>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2" t="s">
+      <c r="C264" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="K264" s="2"/>
-      <c r="L264" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M264" s="2" t="s">
+      <c r="K264" s="5"/>
+      <c r="L264" s="7"/>
+      <c r="M264" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N264" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
-      <c r="T264" s="2"/>
-      <c r="U264" s="2" t="s">
+      <c r="N264" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="V264" s="2"/>
+      <c r="V264" s="5"/>
     </row>
     <row r="265" spans="1:22">
       <c r="A265" s="2" t="s">
@@ -16865,46 +16795,44 @@
       </c>
     </row>
     <row r="270" spans="1:22">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2" t="s">
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K270" s="2" t="s">
+      <c r="K270" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="L270" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M270" s="2" t="s">
+      <c r="L270" s="7"/>
+      <c r="M270" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N270" s="2" t="s">
+      <c r="N270" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-      <c r="Q270" s="2"/>
-      <c r="R270" s="2"/>
-      <c r="S270" s="2"/>
-      <c r="T270" s="2"/>
-      <c r="U270" s="2" t="s">
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="5"/>
+      <c r="U270" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="V270" s="2" t="s">
+      <c r="V270" s="5" t="s">
         <v>422</v>
       </c>
     </row>
@@ -17152,9 +17080,7 @@
         <v>348</v>
       </c>
       <c r="K275" s="2"/>
-      <c r="L275" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L275" s="7"/>
       <c r="M275" s="2" t="s">
         <v>76</v>
       </c>
@@ -17312,9 +17238,7 @@
         <v>348</v>
       </c>
       <c r="K278" s="2"/>
-      <c r="L278" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="L278" s="7"/>
       <c r="M278" s="2" t="s">
         <v>77</v>
       </c>
@@ -17399,46 +17323,44 @@
       </c>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="2" t="s">
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="K280" s="2" t="s">
+      <c r="K280" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="L280" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M280" s="2" t="s">
+      <c r="L280" s="7"/>
+      <c r="M280" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N280" s="2" t="s">
+      <c r="N280" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O280" s="2"/>
-      <c r="P280" s="2"/>
-      <c r="Q280" s="2"/>
-      <c r="R280" s="2"/>
-      <c r="S280" s="2"/>
-      <c r="T280" s="2"/>
-      <c r="U280" s="2" t="s">
+      <c r="O280" s="5"/>
+      <c r="P280" s="5"/>
+      <c r="Q280" s="5"/>
+      <c r="R280" s="5"/>
+      <c r="S280" s="5"/>
+      <c r="T280" s="5"/>
+      <c r="U280" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="V280" s="2" t="s">
+      <c r="V280" s="5" t="s">
         <v>423</v>
       </c>
     </row>
